--- a/3.勤怠管理アプリ/02_要求仕様書/02_要求定義書.xlsx
+++ b/3.勤怠管理アプリ/02_要求仕様書/02_要求定義書.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KPB-036\Desktop\202301_java育成\Webアプリ開発演習(zip用)\設計書(受講生に渡すもの)\設計書(受講生に渡すもの)\3.勤怠管理アプリ\3.勤怠管理アプリ\02_要求仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\AHKG\3.勤怠管理アプリ\02_要求仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9B6018-7602-4697-8B8E-A9D3D7197524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39960" yWindow="690" windowWidth="24465" windowHeight="14910" activeTab="1" xr2:uid="{CCF76CFB-D2A0-4814-B888-2440D70E4E7F}"/>
+    <workbookView xWindow="39960" yWindow="690" windowWidth="24465" windowHeight="14910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$E$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">要件定義書!$A$1:$K$57</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -619,6 +618,35 @@
     </rPh>
     <rPh sb="42" eb="44">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※管理人が申請を承認した時点で、</t>
+    <rPh sb="1" eb="4">
+      <t>カンリニン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請が完了したことを意味する</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -626,7 +654,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1041,6 +1069,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1049,15 +1086,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1114,8 +1142,8 @@
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>1905</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>211455</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -1130,7 +1158,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1118"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1123"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1145,7 +1173,7 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="1905"/>
-              <a:ext cx="6115050" cy="685800"/>
+              <a:ext cx="6115050" cy="676275"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1170,15 +1198,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>782955</xdr:colOff>
+      <xdr:colOff>773430</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>702945</xdr:colOff>
+      <xdr:colOff>693420</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1195,8 +1223,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3507105" y="2409825"/>
-          <a:ext cx="2491740" cy="3238500"/>
+          <a:off x="3497580" y="2390775"/>
+          <a:ext cx="2491740" cy="3362325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1517,8 +1545,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2543175" y="3122295"/>
-          <a:ext cx="386715" cy="533400"/>
+          <a:off x="2543175" y="3160395"/>
+          <a:ext cx="390525" cy="552450"/>
           <a:chOff x="3568" y="5173"/>
           <a:chExt cx="933" cy="1360"/>
         </a:xfrm>
@@ -1723,7 +1751,7 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="466794" cy="328423"/>
+    <xdr:ext cx="607859" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="46" name="テキスト ボックス 45">
@@ -1737,8 +1765,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2484120" y="3781425"/>
-          <a:ext cx="466794" cy="328423"/>
+          <a:off x="2484120" y="3848100"/>
+          <a:ext cx="607859" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1767,7 +1795,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>お客</a:t>
+            <a:t>申請者</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2069,6 +2097,936 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="Group 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FCDB2EE-7D6C-414E-8675-2F0F52836F77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7219950" y="2712720"/>
+          <a:ext cx="390525" cy="552450"/>
+          <a:chOff x="3568" y="5173"/>
+          <a:chExt cx="933" cy="1360"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="Oval 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A56A03E-2866-4D19-8954-6B324395010B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3799" y="5173"/>
+            <a:ext cx="471" cy="435"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="21" name="AutoShape 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1012EF8-E04A-43E1-93DF-72AF6486A191}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks noChangeShapeType="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4035" y="5609"/>
+            <a:ext cx="0" cy="526"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="22" name="AutoShape 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67B0BC1-EF1D-41D4-B328-E4B08FB56C99}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks noChangeShapeType="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3568" y="5815"/>
+            <a:ext cx="933" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="23" name="AutoShape 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{619BCF4E-D836-4DF9-9975-B06BB5279495}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks noChangeShapeType="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="3675" y="6143"/>
+            <a:ext cx="360" cy="390"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="24" name="AutoShape 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CDBC6A6-0502-4328-B49E-3978A579E5DC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks noChangeShapeType="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4035" y="6143"/>
+            <a:ext cx="360" cy="390"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>398145</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="607859" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67F8373-BCBD-42F4-81D8-781183FC874B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7132320" y="3333750"/>
+          <a:ext cx="607859" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>管理人</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>541972</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>61723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47A23F9-63DA-4DE3-B1F2-CB7536CFB499}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="2"/>
+          <a:endCxn id="33" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7276147" y="3662173"/>
+          <a:ext cx="160103" cy="443101"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>807719</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="楕円 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42C38D35-D2EC-4317-BBF4-D40D541BAE85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6334124" y="4105274"/>
+          <a:ext cx="1884045" cy="739141"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>申請を承認もしくは否認する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>440054</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>217170</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC952B68-5142-4056-AA7F-907334062A0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="6"/>
+          <a:endCxn id="33" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5735954" y="4474845"/>
+          <a:ext cx="598170" cy="57150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>188595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="36" name="Group 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FCDB2EE-7D6C-414E-8675-2F0F52836F77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1933575" y="3550920"/>
+          <a:ext cx="390525" cy="552450"/>
+          <a:chOff x="3568" y="5173"/>
+          <a:chExt cx="933" cy="1360"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="Oval 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A56A03E-2866-4D19-8954-6B324395010B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3799" y="5173"/>
+            <a:ext cx="471" cy="435"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="47" name="AutoShape 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1012EF8-E04A-43E1-93DF-72AF6486A191}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks noChangeShapeType="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4035" y="5609"/>
+            <a:ext cx="0" cy="526"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="48" name="AutoShape 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67B0BC1-EF1D-41D4-B328-E4B08FB56C99}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks noChangeShapeType="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3568" y="5815"/>
+            <a:ext cx="933" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="50" name="AutoShape 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{619BCF4E-D836-4DF9-9975-B06BB5279495}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks noChangeShapeType="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="3675" y="6143"/>
+            <a:ext cx="360" cy="390"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="51" name="AutoShape 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CDBC6A6-0502-4328-B49E-3978A579E5DC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks noChangeShapeType="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4035" y="6143"/>
+            <a:ext cx="360" cy="390"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="52" name="Group 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FCDB2EE-7D6C-414E-8675-2F0F52836F77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2466975" y="4360545"/>
+          <a:ext cx="390525" cy="552450"/>
+          <a:chOff x="3568" y="5173"/>
+          <a:chExt cx="933" cy="1360"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="Oval 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A56A03E-2866-4D19-8954-6B324395010B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3799" y="5173"/>
+            <a:ext cx="471" cy="435"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="54" name="AutoShape 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1012EF8-E04A-43E1-93DF-72AF6486A191}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks noChangeShapeType="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4035" y="5609"/>
+            <a:ext cx="0" cy="526"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="55" name="AutoShape 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67B0BC1-EF1D-41D4-B328-E4B08FB56C99}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks noChangeShapeType="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3568" y="5815"/>
+            <a:ext cx="933" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="56" name="AutoShape 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{619BCF4E-D836-4DF9-9975-B06BB5279495}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks noChangeShapeType="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipH="1">
+            <a:off x="3675" y="6143"/>
+            <a:ext cx="360" cy="390"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="57" name="AutoShape 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CDBC6A6-0502-4328-B49E-3978A579E5DC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks noChangeShapeType="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4035" y="6143"/>
+            <a:ext cx="360" cy="390"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2368,21 +3326,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B729E61E-B949-41F9-8A89-4E73CECF64D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2399,7 +3357,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="58" t="s">
         <v>6</v>
       </c>
@@ -2410,298 +3368,268 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="49">
         <v>44469</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="52"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="52"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="52"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="52"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="52"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="52"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="52"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="55"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="52"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="55"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -2709,6 +3637,36 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2717,25 +3675,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C20FC5-7AE7-48A7-98CD-9081647BBD6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.5" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="3" customWidth="1"/>
-    <col min="4" max="6" width="16.8984375" customWidth="1"/>
+    <col min="4" max="6" width="16.875" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="9" width="8.8984375" customWidth="1"/>
-    <col min="10" max="10" width="17.796875" customWidth="1"/>
-    <col min="11" max="11" width="3.19921875" customWidth="1"/>
+    <col min="8" max="9" width="8.875" customWidth="1"/>
+    <col min="10" max="10" width="17.75" customWidth="1"/>
+    <col min="11" max="11" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
@@ -2750,7 +3710,7 @@
       <c r="I5" s="19"/>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="17" t="s">
         <v>21</v>
       </c>
@@ -2765,7 +3725,7 @@
       <c r="I6" s="19"/>
       <c r="J6" s="20"/>
     </row>
-    <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="60" t="s">
         <v>22</v>
       </c>
@@ -2780,7 +3740,7 @@
       <c r="I7" s="24"/>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="61"/>
       <c r="C8" s="40" t="s">
         <v>53</v>
@@ -2793,7 +3753,7 @@
       <c r="I8" s="28"/>
       <c r="J8" s="29"/>
     </row>
-    <row r="9" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="61"/>
       <c r="C9" s="40" t="s">
         <v>30</v>
@@ -2806,7 +3766,7 @@
       <c r="I9" s="28"/>
       <c r="J9" s="29"/>
     </row>
-    <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="62"/>
       <c r="C10" s="44" t="s">
         <v>31</v>
@@ -2819,7 +3779,7 @@
       <c r="I10" s="32"/>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="2:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="60" t="s">
         <v>23</v>
       </c>
@@ -2832,7 +3792,7 @@
       <c r="I11" s="24"/>
       <c r="J11" s="25"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="61"/>
       <c r="C12" s="26"/>
       <c r="D12" s="27"/>
@@ -2843,7 +3803,7 @@
       <c r="I12" s="28"/>
       <c r="J12" s="29"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="61"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
@@ -2854,7 +3814,7 @@
       <c r="I13" s="28"/>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="61"/>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
@@ -2865,7 +3825,7 @@
       <c r="I14" s="28"/>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="61"/>
       <c r="C15" s="26"/>
       <c r="D15" s="27"/>
@@ -2876,7 +3836,7 @@
       <c r="I15" s="28"/>
       <c r="J15" s="29"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="61"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
@@ -2887,7 +3847,7 @@
       <c r="I16" s="28"/>
       <c r="J16" s="29"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="61"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
@@ -2898,7 +3858,7 @@
       <c r="I17" s="28"/>
       <c r="J17" s="29"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="61"/>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
@@ -2909,7 +3869,7 @@
       <c r="I18" s="28"/>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="61"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
@@ -2920,7 +3880,7 @@
       <c r="I19" s="28"/>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="61"/>
       <c r="C20" s="26"/>
       <c r="D20" s="27"/>
@@ -2931,7 +3891,7 @@
       <c r="I20" s="28"/>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="61"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
@@ -2942,29 +3902,33 @@
       <c r="I21" s="28"/>
       <c r="J21" s="29"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="61"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
+      <c r="H22" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="I22" s="28"/>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="61"/>
       <c r="C23" s="26"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
+      <c r="H23" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="I23" s="28"/>
       <c r="J23" s="29"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="61"/>
       <c r="C24" s="26"/>
       <c r="D24" s="27"/>
@@ -2975,7 +3939,7 @@
       <c r="I24" s="28"/>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="62"/>
       <c r="C25" s="30"/>
       <c r="D25" s="31"/>
@@ -2986,7 +3950,7 @@
       <c r="I25" s="32"/>
       <c r="J25" s="33"/>
     </row>
-    <row r="26" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="60" t="s">
         <v>24</v>
       </c>
@@ -3003,7 +3967,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="61"/>
       <c r="C27" s="35"/>
       <c r="D27" s="36" t="s">
@@ -3018,7 +3982,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="61"/>
       <c r="C28" s="37"/>
       <c r="D28" s="35" t="s">
@@ -3033,7 +3997,7 @@
       <c r="I28" s="11"/>
       <c r="J28" s="12"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="61"/>
       <c r="C29" s="37"/>
       <c r="D29" s="38"/>
@@ -3044,7 +4008,7 @@
       <c r="I29" s="14"/>
       <c r="J29" s="15"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="61"/>
       <c r="C30" s="37"/>
       <c r="D30" s="36" t="s">
@@ -3059,7 +4023,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="61"/>
       <c r="C31" s="37"/>
       <c r="D31" s="36" t="s">
@@ -3074,7 +4038,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="61"/>
       <c r="C32" s="37"/>
       <c r="D32" s="36" t="s">
@@ -3089,7 +4053,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="61"/>
       <c r="C33" s="37"/>
       <c r="D33" s="36" t="s">
@@ -3104,7 +4068,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="61"/>
       <c r="C34" s="37"/>
       <c r="D34" s="35" t="s">
@@ -3119,7 +4083,7 @@
       <c r="I34" s="11"/>
       <c r="J34" s="12"/>
     </row>
-    <row r="35" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="61"/>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
@@ -3131,7 +4095,7 @@
       <c r="H35" s="39"/>
       <c r="J35" s="13"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B36" s="61"/>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
@@ -3143,7 +4107,7 @@
       <c r="H36" s="28"/>
       <c r="J36" s="13"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B37" s="61"/>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
@@ -3155,7 +4119,7 @@
       <c r="H37" s="28"/>
       <c r="J37" s="13"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B38" s="61"/>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
@@ -3167,7 +4131,7 @@
       <c r="H38" s="28"/>
       <c r="J38" s="13"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B39" s="61"/>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
@@ -3179,7 +4143,7 @@
       <c r="H39" s="28"/>
       <c r="J39" s="13"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B40" s="61"/>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
@@ -3191,7 +4155,7 @@
       <c r="H40" s="28"/>
       <c r="J40" s="13"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B41" s="62"/>
       <c r="C41" s="38"/>
       <c r="D41" s="38"/>
@@ -3202,7 +4166,7 @@
       <c r="I41" s="14"/>
       <c r="J41" s="15"/>
     </row>
-    <row r="42" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="60" t="s">
         <v>25</v>
       </c>
@@ -3217,7 +4181,7 @@
       <c r="I42" s="24"/>
       <c r="J42" s="25"/>
     </row>
-    <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="61"/>
       <c r="C43" s="43" t="s">
         <v>42</v>
@@ -3230,7 +4194,7 @@
       <c r="I43" s="24"/>
       <c r="J43" s="25"/>
     </row>
-    <row r="44" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="61"/>
       <c r="C44" s="43" t="s">
         <v>48</v>
@@ -3243,7 +4207,7 @@
       <c r="I44" s="41"/>
       <c r="J44" s="42"/>
     </row>
-    <row r="45" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="61"/>
       <c r="C45" s="43" t="s">
         <v>44</v>
@@ -3256,7 +4220,7 @@
       <c r="I45" s="24"/>
       <c r="J45" s="25"/>
     </row>
-    <row r="46" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="61"/>
       <c r="C46" s="43" t="s">
         <v>51</v>
@@ -3269,7 +4233,7 @@
       <c r="I46" s="41"/>
       <c r="J46" s="42"/>
     </row>
-    <row r="47" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="61"/>
       <c r="C47" s="43" t="s">
         <v>49</v>
@@ -3282,7 +4246,7 @@
       <c r="I47" s="41"/>
       <c r="J47" s="42"/>
     </row>
-    <row r="48" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="61"/>
       <c r="C48" s="44" t="s">
         <v>50</v>
@@ -3295,7 +4259,7 @@
       <c r="I48" s="45"/>
       <c r="J48" s="46"/>
     </row>
-    <row r="49" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="61"/>
       <c r="C49" s="44" t="s">
         <v>52</v>
@@ -3308,7 +4272,7 @@
       <c r="I49" s="45"/>
       <c r="J49" s="46"/>
     </row>
-    <row r="50" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="63"/>
       <c r="C50" s="18"/>
       <c r="D50" s="19"/>
@@ -3319,7 +4283,7 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="60" t="s">
         <v>26</v>
       </c>
@@ -3334,7 +4298,7 @@
       <c r="I51" s="24"/>
       <c r="J51" s="25"/>
     </row>
-    <row r="52" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="61"/>
       <c r="C52" s="43" t="s">
         <v>42</v>
@@ -3347,7 +4311,7 @@
       <c r="I52" s="24"/>
       <c r="J52" s="25"/>
     </row>
-    <row r="53" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="61"/>
       <c r="C53" s="43" t="s">
         <v>43</v>
@@ -3360,7 +4324,7 @@
       <c r="I53" s="41"/>
       <c r="J53" s="42"/>
     </row>
-    <row r="54" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="61"/>
       <c r="C54" s="43" t="s">
         <v>45</v>
@@ -3373,7 +4337,7 @@
       <c r="I54" s="24"/>
       <c r="J54" s="25"/>
     </row>
-    <row r="55" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="61"/>
       <c r="C55" s="43" t="s">
         <v>55</v>
@@ -3386,7 +4350,7 @@
       <c r="I55" s="41"/>
       <c r="J55" s="42"/>
     </row>
-    <row r="56" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="62"/>
       <c r="C56" s="18"/>
       <c r="D56" s="47"/>
@@ -3397,7 +4361,7 @@
       <c r="I56" s="47"/>
       <c r="J56" s="48"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B57" s="16"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -3405,10 +4369,10 @@
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B58" s="9"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B60" s="10"/>
     </row>
   </sheetData>
